--- a/Input/Cigna_Global_Health/userType.xlsx
+++ b/Input/Cigna_Global_Health/userType.xlsx
@@ -76,19 +76,19 @@
     <t xml:space="preserve">Out-patient benefits</t>
   </si>
   <si>
-    <t xml:space="preserve">Out-patient Consultations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out-patient Specialists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out-patient Medicines</t>
+    <t xml:space="preserve">Out-patient_Consultations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-patient_Specialists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-patient_Medicines</t>
   </si>
   <si>
     <t xml:space="preserve">Vaccination</t>
   </si>
   <si>
-    <t xml:space="preserve">Scans &amp; Diagnostic Tests</t>
+    <t xml:space="preserve">Scans</t>
   </si>
   <si>
     <t xml:space="preserve">Physiotherapy</t>
@@ -115,7 +115,7 @@
     <t xml:space="preserve">Dental</t>
   </si>
   <si>
-    <t xml:space="preserve">Dental Waiting Period</t>
+    <t xml:space="preserve">Dental_Waiting_Period</t>
   </si>
   <si>
     <t xml:space="preserve">Additional Benefits</t>
@@ -133,7 +133,7 @@
     <t xml:space="preserve">Mental Health Benefit</t>
   </si>
   <si>
-    <t xml:space="preserve">Emergency Evacuation</t>
+    <t xml:space="preserve">Emergency-Evacuation</t>
   </si>
   <si>
     <t xml:space="preserve">Virtual / Tele Doctor</t>
@@ -161,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -188,6 +188,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,7 +237,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -241,33 +246,36 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -382,24 +390,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -414,8 +422,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -486,8 +494,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -534,8 +542,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="1" t="s">

--- a/Input/Cigna_Global_Health/userType.xlsx
+++ b/Input/Cigna_Global_Health/userType.xlsx
@@ -76,13 +76,13 @@
     <t xml:space="preserve">Out-patient benefits</t>
   </si>
   <si>
-    <t xml:space="preserve">Out-patient_Consultations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out-patient_Specialists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out-patient_Medicines</t>
+    <t xml:space="preserve">Out-patient-Consultations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-patient-Specialists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-patient-Medicines</t>
   </si>
   <si>
     <t xml:space="preserve">Vaccination</t>
@@ -161,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -188,11 +188,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,7 +241,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -263,19 +258,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Input/Cigna_Global_Health/userType.xlsx
+++ b/Input/Cigna_Global_Health/userType.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t xml:space="preserve">benefits</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">Emergency-Evacuation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repatriation-Benefit</t>
   </si>
   <si>
     <t xml:space="preserve">Virtual / Tele Doctor</t>
@@ -262,10 +265,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -546,15 +549,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -562,7 +565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -578,12 +581,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Cigna_Global_Health/userType.xlsx
+++ b/Input/Cigna_Global_Health/userType.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t xml:space="preserve">benefits</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repatriation-Benefit</t>
   </si>
 </sst>
 </file>
@@ -262,10 +265,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -586,6 +589,14 @@
         <v>43</v>
       </c>
     </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
